--- a/todo.xlsx
+++ b/todo.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>Catégorie</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Responsable</t>
   </si>
   <si>
-    <t xml:space="preserve">Reste à faire </t>
-  </si>
-  <si>
     <t>Avancement (en %)</t>
   </si>
   <si>
@@ -95,6 +92,21 @@
   </si>
   <si>
     <t>Durée de vie des sessions (Token)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Métier</t>
+  </si>
+  <si>
+    <t>Base de donnée</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Reste à faire (en %)</t>
   </si>
 </sst>
 </file>
@@ -443,24 +455,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="55.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,317 +481,372 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>60</v>
       </c>
       <c r="E2">
         <v>60</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>(100-G2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H14" si="0">(100-G3)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>(100-G5)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>(100-G6)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E8">
+        <v>90</v>
+      </c>
+      <c r="F8">
+        <v>120</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>75</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>60</v>
-      </c>
-      <c r="E6">
-        <v>75</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>90</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>90</v>
-      </c>
-      <c r="E8">
-        <v>120</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>60</v>
-      </c>
-      <c r="E9">
-        <v>75</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>60</v>
       </c>
       <c r="E10">
         <v>60</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>90</v>
+      </c>
+      <c r="F11">
+        <v>120</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>120</v>
+      </c>
+      <c r="F12">
+        <v>270</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="D11">
+      <c r="E13">
         <v>90</v>
       </c>
-      <c r="E11">
-        <v>120</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>120</v>
-      </c>
-      <c r="E12">
-        <v>270</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>90</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
         <v>60</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>45</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
